--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,10 +91,13 @@
     <t>Notch3</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.891643922720495</v>
+        <v>0.02061333333333333</v>
       </c>
       <c r="H2">
-        <v>0.891643922720495</v>
+        <v>0.06184</v>
       </c>
       <c r="I2">
-        <v>0.2388007537866872</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="J2">
-        <v>0.2388007537866872</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.87051672530531</v>
+        <v>2.987818</v>
       </c>
       <c r="N2">
-        <v>2.87051672530531</v>
+        <v>8.963454</v>
       </c>
       <c r="O2">
-        <v>0.03802013550685467</v>
+        <v>0.03670737884717296</v>
       </c>
       <c r="P2">
-        <v>0.03802013550685467</v>
+        <v>0.03670737884717296</v>
       </c>
       <c r="Q2">
-        <v>2.559478793186016</v>
+        <v>0.06158888837333334</v>
       </c>
       <c r="R2">
-        <v>2.559478793186016</v>
+        <v>0.5542999953600001</v>
       </c>
       <c r="S2">
-        <v>0.009079237018108886</v>
+        <v>0.0001196204510601779</v>
       </c>
       <c r="T2">
-        <v>0.009079237018108886</v>
+        <v>0.0001196204510601779</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.891643922720495</v>
+        <v>0.02061333333333333</v>
       </c>
       <c r="H3">
-        <v>0.891643922720495</v>
+        <v>0.06184</v>
       </c>
       <c r="I3">
-        <v>0.2388007537866872</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="J3">
-        <v>0.2388007537866872</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.59304174837258</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N3">
-        <v>4.59304174837258</v>
+        <v>14.22398</v>
       </c>
       <c r="O3">
-        <v>0.06083506433608837</v>
+        <v>0.05825042696427194</v>
       </c>
       <c r="P3">
-        <v>0.06083506433608837</v>
+        <v>0.05825042696427195</v>
       </c>
       <c r="Q3">
-        <v>4.095357761737928</v>
+        <v>0.09773454702222223</v>
       </c>
       <c r="R3">
-        <v>4.095357761737928</v>
+        <v>0.8796109232</v>
       </c>
       <c r="S3">
-        <v>0.01452745922011951</v>
+        <v>0.0001898240235818635</v>
       </c>
       <c r="T3">
-        <v>0.01452745922011951</v>
+        <v>0.0001898240235818635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.891643922720495</v>
+        <v>0.02061333333333333</v>
       </c>
       <c r="H4">
-        <v>0.891643922720495</v>
+        <v>0.06184</v>
       </c>
       <c r="I4">
-        <v>0.2388007537866872</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="J4">
-        <v>0.2388007537866872</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.211709112138957</v>
+        <v>0.1099783333333333</v>
       </c>
       <c r="N4">
-        <v>0.211709112138957</v>
+        <v>0.329935</v>
       </c>
       <c r="O4">
-        <v>0.002804097624863314</v>
+        <v>0.001351158720727747</v>
       </c>
       <c r="P4">
-        <v>0.002804097624863314</v>
+        <v>0.001351158720727747</v>
       </c>
       <c r="Q4">
-        <v>0.1887691432232528</v>
+        <v>0.002267020044444444</v>
       </c>
       <c r="R4">
-        <v>0.1887691432232528</v>
+        <v>0.0204031804</v>
       </c>
       <c r="S4">
-        <v>0.0006696206265088185</v>
+        <v>4.403098796573261E-06</v>
       </c>
       <c r="T4">
-        <v>0.0006696206265088185</v>
+        <v>4.403098796573261E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.891643922720495</v>
+        <v>0.02061333333333333</v>
       </c>
       <c r="H5">
-        <v>0.891643922720495</v>
+        <v>0.06184</v>
       </c>
       <c r="I5">
-        <v>0.2388007537866872</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="J5">
-        <v>0.2388007537866872</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>67.8246402140326</v>
+        <v>0.2117236666666667</v>
       </c>
       <c r="N5">
-        <v>67.8246402140326</v>
+        <v>0.635171</v>
       </c>
       <c r="O5">
-        <v>0.8983407025321938</v>
+        <v>0.002601169429746356</v>
       </c>
       <c r="P5">
-        <v>0.8983407025321938</v>
+        <v>0.002601169429746356</v>
       </c>
       <c r="Q5">
-        <v>60.47542825754626</v>
+        <v>0.004364330515555556</v>
       </c>
       <c r="R5">
-        <v>60.47542825754626</v>
+        <v>0.03927897464</v>
       </c>
       <c r="S5">
-        <v>0.21452443692195</v>
+        <v>8.476580737776334E-06</v>
       </c>
       <c r="T5">
-        <v>0.21452443692195</v>
+        <v>8.476580737776334E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.84219656388438</v>
+        <v>0.02061333333333333</v>
       </c>
       <c r="H6">
-        <v>2.84219656388438</v>
+        <v>0.06184</v>
       </c>
       <c r="I6">
-        <v>0.7611992462133128</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="J6">
-        <v>0.7611992462133128</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.87051672530531</v>
+        <v>0.357675</v>
       </c>
       <c r="N6">
-        <v>2.87051672530531</v>
+        <v>1.073025</v>
       </c>
       <c r="O6">
-        <v>0.03802013550685467</v>
+        <v>0.004394280953245006</v>
       </c>
       <c r="P6">
-        <v>0.03802013550685467</v>
+        <v>0.004394280953245007</v>
       </c>
       <c r="Q6">
-        <v>8.158572773235395</v>
+        <v>0.007372874000000001</v>
       </c>
       <c r="R6">
-        <v>8.158572773235395</v>
+        <v>0.066355866</v>
       </c>
       <c r="S6">
-        <v>0.02894089848874579</v>
+        <v>1.431989660446156E-05</v>
       </c>
       <c r="T6">
-        <v>0.02894089848874579</v>
+        <v>1.431989660446156E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>2.84219656388438</v>
+        <v>0.02061333333333333</v>
       </c>
       <c r="H7">
-        <v>2.84219656388438</v>
+        <v>0.06184</v>
       </c>
       <c r="I7">
-        <v>0.7611992462133128</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="J7">
-        <v>0.7611992462133128</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.59304174837258</v>
+        <v>72.98704766666667</v>
       </c>
       <c r="N7">
-        <v>4.59304174837258</v>
+        <v>218.961143</v>
       </c>
       <c r="O7">
-        <v>0.06083506433608837</v>
+        <v>0.8966955850848359</v>
       </c>
       <c r="P7">
-        <v>0.06083506433608837</v>
+        <v>0.8966955850848359</v>
       </c>
       <c r="Q7">
-        <v>13.05432747500205</v>
+        <v>1.504506342568889</v>
       </c>
       <c r="R7">
-        <v>13.05432747500205</v>
+        <v>13.54055708312</v>
       </c>
       <c r="S7">
-        <v>0.04630760511596885</v>
+        <v>0.002922113583704687</v>
       </c>
       <c r="T7">
-        <v>0.04630760511596885</v>
+        <v>0.002922113583704687</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.84219656388438</v>
+        <v>0.9789586666666666</v>
       </c>
       <c r="H8">
-        <v>2.84219656388438</v>
+        <v>2.936876</v>
       </c>
       <c r="I8">
-        <v>0.7611992462133128</v>
+        <v>0.1547633746205911</v>
       </c>
       <c r="J8">
-        <v>0.7611992462133128</v>
+        <v>0.1547633746205911</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.211709112138957</v>
+        <v>2.987818</v>
       </c>
       <c r="N8">
-        <v>0.211709112138957</v>
+        <v>8.963454</v>
       </c>
       <c r="O8">
-        <v>0.002804097624863314</v>
+        <v>0.03670737884717296</v>
       </c>
       <c r="P8">
-        <v>0.002804097624863314</v>
+        <v>0.03670737884717296</v>
       </c>
       <c r="Q8">
-        <v>0.6017189110643565</v>
+        <v>2.924950325522667</v>
       </c>
       <c r="R8">
-        <v>0.6017189110643565</v>
+        <v>26.324552929704</v>
       </c>
       <c r="S8">
-        <v>0.002134476998354495</v>
+        <v>0.00568095782386499</v>
       </c>
       <c r="T8">
-        <v>0.002134476998354495</v>
+        <v>0.00568095782386499</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +962,681 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.84219656388438</v>
+        <v>0.9789586666666666</v>
       </c>
       <c r="H9">
-        <v>2.84219656388438</v>
+        <v>2.936876</v>
       </c>
       <c r="I9">
-        <v>0.7611992462133128</v>
+        <v>0.1547633746205911</v>
       </c>
       <c r="J9">
-        <v>0.7611992462133128</v>
+        <v>0.1547633746205911</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.8246402140326</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N9">
-        <v>67.8246402140326</v>
+        <v>14.22398</v>
       </c>
       <c r="O9">
-        <v>0.8983407025321938</v>
+        <v>0.05825042696427194</v>
       </c>
       <c r="P9">
-        <v>0.8983407025321938</v>
+        <v>0.05825042696427195</v>
       </c>
       <c r="Q9">
-        <v>192.7709593630178</v>
+        <v>4.641562831831111</v>
       </c>
       <c r="R9">
-        <v>192.7709593630178</v>
+        <v>41.77406548648</v>
       </c>
       <c r="S9">
-        <v>0.6838162656102438</v>
+        <v>0.009015032650080999</v>
       </c>
       <c r="T9">
-        <v>0.6838162656102438</v>
+        <v>0.009015032650080999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9789586666666666</v>
+      </c>
+      <c r="H10">
+        <v>2.936876</v>
+      </c>
+      <c r="I10">
+        <v>0.1547633746205911</v>
+      </c>
+      <c r="J10">
+        <v>0.1547633746205911</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1099783333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.329935</v>
+      </c>
+      <c r="O10">
+        <v>0.001351158720727747</v>
+      </c>
+      <c r="P10">
+        <v>0.001351158720727747</v>
+      </c>
+      <c r="Q10">
+        <v>0.1076642425622222</v>
+      </c>
+      <c r="R10">
+        <v>0.9689781830599998</v>
+      </c>
+      <c r="S10">
+        <v>0.000209109883267867</v>
+      </c>
+      <c r="T10">
+        <v>0.0002091098832678669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9789586666666666</v>
+      </c>
+      <c r="H11">
+        <v>2.936876</v>
+      </c>
+      <c r="I11">
+        <v>0.1547633746205911</v>
+      </c>
+      <c r="J11">
+        <v>0.1547633746205911</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2117236666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.635171</v>
+      </c>
+      <c r="O11">
+        <v>0.002601169429746356</v>
+      </c>
+      <c r="P11">
+        <v>0.002601169429746356</v>
+      </c>
+      <c r="Q11">
+        <v>0.2072687184217778</v>
+      </c>
+      <c r="R11">
+        <v>1.865418465796</v>
+      </c>
+      <c r="S11">
+        <v>0.0004025657589074646</v>
+      </c>
+      <c r="T11">
+        <v>0.0004025657589074645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9789586666666666</v>
+      </c>
+      <c r="H12">
+        <v>2.936876</v>
+      </c>
+      <c r="I12">
+        <v>0.1547633746205911</v>
+      </c>
+      <c r="J12">
+        <v>0.1547633746205911</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.357675</v>
+      </c>
+      <c r="N12">
+        <v>1.073025</v>
+      </c>
+      <c r="O12">
+        <v>0.004394280953245006</v>
+      </c>
+      <c r="P12">
+        <v>0.004394280953245007</v>
+      </c>
+      <c r="Q12">
+        <v>0.3501490411</v>
+      </c>
+      <c r="R12">
+        <v>3.1513413699</v>
+      </c>
+      <c r="S12">
+        <v>0.000680073749355185</v>
+      </c>
+      <c r="T12">
+        <v>0.000680073749355185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9789586666666666</v>
+      </c>
+      <c r="H13">
+        <v>2.936876</v>
+      </c>
+      <c r="I13">
+        <v>0.1547633746205911</v>
+      </c>
+      <c r="J13">
+        <v>0.1547633746205911</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>72.98704766666667</v>
+      </c>
+      <c r="N13">
+        <v>218.961143</v>
+      </c>
+      <c r="O13">
+        <v>0.8966955850848359</v>
+      </c>
+      <c r="P13">
+        <v>0.8966955850848359</v>
+      </c>
+      <c r="Q13">
+        <v>71.45130286769644</v>
+      </c>
+      <c r="R13">
+        <v>643.061725809268</v>
+      </c>
+      <c r="S13">
+        <v>0.1387756347551146</v>
+      </c>
+      <c r="T13">
+        <v>0.1387756347551145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.325947</v>
+      </c>
+      <c r="H14">
+        <v>15.977841</v>
+      </c>
+      <c r="I14">
+        <v>0.8419778677449234</v>
+      </c>
+      <c r="J14">
+        <v>0.8419778677449233</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.987818</v>
+      </c>
+      <c r="N14">
+        <v>8.963454</v>
+      </c>
+      <c r="O14">
+        <v>0.03670737884717296</v>
+      </c>
+      <c r="P14">
+        <v>0.03670737884717296</v>
+      </c>
+      <c r="Q14">
+        <v>15.912960313646</v>
+      </c>
+      <c r="R14">
+        <v>143.216642822814</v>
+      </c>
+      <c r="S14">
+        <v>0.0309068005722478</v>
+      </c>
+      <c r="T14">
+        <v>0.03090680057224779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.325947</v>
+      </c>
+      <c r="H15">
+        <v>15.977841</v>
+      </c>
+      <c r="I15">
+        <v>0.8419778677449234</v>
+      </c>
+      <c r="J15">
+        <v>0.8419778677449233</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.741326666666667</v>
+      </c>
+      <c r="N15">
+        <v>14.22398</v>
+      </c>
+      <c r="O15">
+        <v>0.05825042696427194</v>
+      </c>
+      <c r="P15">
+        <v>0.05825042696427195</v>
+      </c>
+      <c r="Q15">
+        <v>25.25205453635333</v>
+      </c>
+      <c r="R15">
+        <v>227.26849082718</v>
+      </c>
+      <c r="S15">
+        <v>0.04904557029060908</v>
+      </c>
+      <c r="T15">
+        <v>0.04904557029060908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.325947</v>
+      </c>
+      <c r="H16">
+        <v>15.977841</v>
+      </c>
+      <c r="I16">
+        <v>0.8419778677449234</v>
+      </c>
+      <c r="J16">
+        <v>0.8419778677449233</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1099783333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.329935</v>
+      </c>
+      <c r="O16">
+        <v>0.001351158720727747</v>
+      </c>
+      <c r="P16">
+        <v>0.001351158720727747</v>
+      </c>
+      <c r="Q16">
+        <v>0.5857387744816667</v>
+      </c>
+      <c r="R16">
+        <v>5.271648970335</v>
+      </c>
+      <c r="S16">
+        <v>0.001137645738663307</v>
+      </c>
+      <c r="T16">
+        <v>0.001137645738663307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.325947</v>
+      </c>
+      <c r="H17">
+        <v>15.977841</v>
+      </c>
+      <c r="I17">
+        <v>0.8419778677449234</v>
+      </c>
+      <c r="J17">
+        <v>0.8419778677449233</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2117236666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.635171</v>
+      </c>
+      <c r="O17">
+        <v>0.002601169429746356</v>
+      </c>
+      <c r="P17">
+        <v>0.002601169429746356</v>
+      </c>
+      <c r="Q17">
+        <v>1.127629027312333</v>
+      </c>
+      <c r="R17">
+        <v>10.148661245811</v>
+      </c>
+      <c r="S17">
+        <v>0.002190127090101115</v>
+      </c>
+      <c r="T17">
+        <v>0.002190127090101115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.325947</v>
+      </c>
+      <c r="H18">
+        <v>15.977841</v>
+      </c>
+      <c r="I18">
+        <v>0.8419778677449234</v>
+      </c>
+      <c r="J18">
+        <v>0.8419778677449233</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.357675</v>
+      </c>
+      <c r="N18">
+        <v>1.073025</v>
+      </c>
+      <c r="O18">
+        <v>0.004394280953245006</v>
+      </c>
+      <c r="P18">
+        <v>0.004394280953245007</v>
+      </c>
+      <c r="Q18">
+        <v>1.904958093225</v>
+      </c>
+      <c r="R18">
+        <v>17.144622839025</v>
+      </c>
+      <c r="S18">
+        <v>0.00369988730728536</v>
+      </c>
+      <c r="T18">
+        <v>0.00369988730728536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.325947</v>
+      </c>
+      <c r="H19">
+        <v>15.977841</v>
+      </c>
+      <c r="I19">
+        <v>0.8419778677449234</v>
+      </c>
+      <c r="J19">
+        <v>0.8419778677449233</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>72.98704766666667</v>
+      </c>
+      <c r="N19">
+        <v>218.961143</v>
+      </c>
+      <c r="O19">
+        <v>0.8966955850848359</v>
+      </c>
+      <c r="P19">
+        <v>0.8966955850848359</v>
+      </c>
+      <c r="Q19">
+        <v>388.7251475591403</v>
+      </c>
+      <c r="R19">
+        <v>3498.526328032263</v>
+      </c>
+      <c r="S19">
+        <v>0.7549978367460167</v>
+      </c>
+      <c r="T19">
+        <v>0.7549978367460166</v>
       </c>
     </row>
   </sheetData>
